--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,190 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/verona-bologna/UBlT9Fig/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45191.77083333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:22</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:22</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:20</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:22</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-frosinone/0KlD5LH4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45191.86458333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:23</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:23</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:23</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-genoa/v5047smh/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>4.27</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,742 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/lecce-genoa/v5047smh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-verona/Iea8612b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:37</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:37</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-juventus/ENhH4uXA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.86458333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:00</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-monza/AVe08NXo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45193.52083333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:20</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-inter/Wvcd93Iu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:30</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:30</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:30</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45193.75</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:47</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-napoli/4lqh4BLU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45193.86458333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-as-roma/8phL3anH/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,46 +757,46 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,24 +804,24 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R5" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -5146,6 +5146,98 @@
       <c r="V51" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/torino-as-roma/8phL3anH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-lecce/vqRq6h8F/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -5238,6 +5238,558 @@
       <c r="V52" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/juventus-lecce/vqRq6h8F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45196.77083333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:10</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:10</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:10</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45196.77083333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45196.77083333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45196.86458333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45196.86458333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45196.86458333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
